--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2517957102541956</v>
+        <v>0.1666076251416388</v>
       </c>
       <c r="C2">
-        <v>1.386019378421211</v>
+        <v>1.464488876860186</v>
       </c>
       <c r="D2">
-        <v>7.589302934471694</v>
+        <v>9.385379659755237</v>
       </c>
       <c r="E2">
-        <v>2.754868950507754</v>
+        <v>3.063556700920556</v>
       </c>
       <c r="F2">
-        <v>2.80499345858655</v>
+        <v>3.131009834800738</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5243254742780024</v>
+        <v>0.0708499967161877</v>
       </c>
       <c r="C3">
-        <v>1.822206725996549</v>
+        <v>1.419337315890072</v>
       </c>
       <c r="D3">
-        <v>13.98149530182482</v>
+        <v>9.02840922660916</v>
       </c>
       <c r="E3">
-        <v>3.739183774813004</v>
+        <v>3.004731140486476</v>
       </c>
       <c r="F3">
-        <v>3.789363045952605</v>
+        <v>3.078077156245957</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.8019598128076217</v>
+        <v>-0.4288746198142434</v>
       </c>
       <c r="C4">
-        <v>1.305564707247611</v>
+        <v>0.8403831407438848</v>
       </c>
       <c r="D4">
-        <v>6.943070400165851</v>
+        <v>3.678417349840328</v>
       </c>
       <c r="E4">
-        <v>2.634970664004791</v>
+        <v>1.917920058250689</v>
       </c>
       <c r="F4">
-        <v>2.571950116496777</v>
+        <v>1.917916608230349</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02187051981424342</v>
+        <v>-0.01747259896522734</v>
       </c>
       <c r="C5">
-        <v>0.4503981798184682</v>
+        <v>0.5856938463863763</v>
       </c>
       <c r="D5">
-        <v>0.5039077891406407</v>
+        <v>0.8820486078156717</v>
       </c>
       <c r="E5">
-        <v>0.709864627334424</v>
+        <v>0.9391744288552961</v>
       </c>
       <c r="F5">
-        <v>0.7279599970962077</v>
+        <v>0.9647429999147259</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0766489273505621</v>
+        <v>-0.01422969815280487</v>
       </c>
       <c r="C6">
-        <v>0.6798153727021657</v>
+        <v>0.6208678124689757</v>
       </c>
       <c r="D6">
-        <v>1.082404327345544</v>
+        <v>0.9450450342577459</v>
       </c>
       <c r="E6">
-        <v>1.040386623974734</v>
+        <v>0.9721342676080017</v>
       </c>
       <c r="F6">
-        <v>1.065990830592977</v>
+        <v>1.000210739531721</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1907918648194715</v>
+        <v>-0.1197329514763359</v>
       </c>
       <c r="C7">
-        <v>0.5798188246083275</v>
+        <v>0.4398200131717107</v>
       </c>
       <c r="D7">
-        <v>0.8145864660070502</v>
+        <v>0.4468041506909826</v>
       </c>
       <c r="E7">
-        <v>0.9025444399070055</v>
+        <v>0.6684341034769117</v>
       </c>
       <c r="F7">
-        <v>0.9077227079139136</v>
+        <v>0.6778623988027417</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1371052455939829</v>
+        <v>-0.04262487491856422</v>
       </c>
       <c r="C8">
-        <v>0.4571923072893577</v>
+        <v>0.4573970767948405</v>
       </c>
       <c r="D8">
-        <v>0.4943098393230912</v>
+        <v>0.4014438679027904</v>
       </c>
       <c r="E8">
-        <v>0.7030717170553024</v>
+        <v>0.6335959816024643</v>
       </c>
       <c r="F8">
-        <v>0.7107963775852487</v>
+        <v>0.6528926306346485</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1145279375814358</v>
+        <v>0.04839913305653263</v>
       </c>
       <c r="C9">
-        <v>0.4251814381380697</v>
+        <v>0.3941245839882653</v>
       </c>
       <c r="D9">
-        <v>0.3204394163604665</v>
+        <v>0.3208696055700829</v>
       </c>
       <c r="E9">
-        <v>0.5660736845680662</v>
+        <v>0.566453533460674</v>
       </c>
       <c r="F9">
-        <v>0.5725477730274827</v>
+        <v>0.5841909510683425</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01358233361013406</v>
+        <v>-0.01748806567405372</v>
       </c>
       <c r="C10">
-        <v>0.3321431173215987</v>
+        <v>0.3260429352179946</v>
       </c>
       <c r="D10">
-        <v>0.2545945103064831</v>
+        <v>0.2494121353768383</v>
       </c>
       <c r="E10">
-        <v>0.5045735925576001</v>
+        <v>0.4994117893851108</v>
       </c>
       <c r="F10">
-        <v>0.5220940294212741</v>
+        <v>0.5179462580602099</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.02420063924481428</v>
+        <v>-0.02168945670833724</v>
       </c>
       <c r="C11">
-        <v>0.3457558232543146</v>
+        <v>0.351174191232308</v>
       </c>
       <c r="D11">
-        <v>0.2682231761632309</v>
+        <v>0.2265631253025311</v>
       </c>
       <c r="E11">
-        <v>0.517902670550395</v>
+        <v>0.4759864759659995</v>
       </c>
       <c r="F11">
-        <v>0.5384613548423456</v>
+        <v>0.4949078202060265</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_10_9_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1666076251416388</v>
+        <v>0.2517957102541956</v>
       </c>
       <c r="C2">
-        <v>1.464488876860186</v>
+        <v>1.386019378421211</v>
       </c>
       <c r="D2">
-        <v>9.385379659755237</v>
+        <v>7.589302934471694</v>
       </c>
       <c r="E2">
-        <v>3.063556700920556</v>
+        <v>2.754868950507754</v>
       </c>
       <c r="F2">
-        <v>3.131009834800738</v>
+        <v>2.80499345858655</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0708499967161877</v>
+        <v>0.5243254742780024</v>
       </c>
       <c r="C3">
-        <v>1.419337315890072</v>
+        <v>1.822206725996549</v>
       </c>
       <c r="D3">
-        <v>9.02840922660916</v>
+        <v>13.98149530182482</v>
       </c>
       <c r="E3">
-        <v>3.004731140486476</v>
+        <v>3.739183774813004</v>
       </c>
       <c r="F3">
-        <v>3.078077156245957</v>
+        <v>3.789363045952605</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.4288746198142434</v>
+        <v>-0.8019598128076217</v>
       </c>
       <c r="C4">
-        <v>0.8403831407438848</v>
+        <v>1.305564707247611</v>
       </c>
       <c r="D4">
-        <v>3.678417349840328</v>
+        <v>6.943070400165851</v>
       </c>
       <c r="E4">
-        <v>1.917920058250689</v>
+        <v>2.634970664004791</v>
       </c>
       <c r="F4">
-        <v>1.917916608230349</v>
+        <v>2.571950116496777</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.01747259896522734</v>
+        <v>-0.02187051981424342</v>
       </c>
       <c r="C5">
-        <v>0.5856938463863763</v>
+        <v>0.4503981798184682</v>
       </c>
       <c r="D5">
-        <v>0.8820486078156717</v>
+        <v>0.5039077891406407</v>
       </c>
       <c r="E5">
-        <v>0.9391744288552961</v>
+        <v>0.709864627334424</v>
       </c>
       <c r="F5">
-        <v>0.9647429999147259</v>
+        <v>0.7279599970962077</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01422969815280487</v>
+        <v>0.0766489273505621</v>
       </c>
       <c r="C6">
-        <v>0.6208678124689757</v>
+        <v>0.6798153727021657</v>
       </c>
       <c r="D6">
-        <v>0.9450450342577459</v>
+        <v>1.082404327345544</v>
       </c>
       <c r="E6">
-        <v>0.9721342676080017</v>
+        <v>1.040386623974734</v>
       </c>
       <c r="F6">
-        <v>1.000210739531721</v>
+        <v>1.065990830592977</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1197329514763359</v>
+        <v>-0.1907918648194715</v>
       </c>
       <c r="C7">
-        <v>0.4398200131717107</v>
+        <v>0.5798188246083275</v>
       </c>
       <c r="D7">
-        <v>0.4468041506909826</v>
+        <v>0.8145864660070502</v>
       </c>
       <c r="E7">
-        <v>0.6684341034769117</v>
+        <v>0.9025444399070055</v>
       </c>
       <c r="F7">
-        <v>0.6778623988027417</v>
+        <v>0.9077227079139136</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04262487491856422</v>
+        <v>-0.1371052455939829</v>
       </c>
       <c r="C8">
-        <v>0.4573970767948405</v>
+        <v>0.4571923072893577</v>
       </c>
       <c r="D8">
-        <v>0.4014438679027904</v>
+        <v>0.4943098393230912</v>
       </c>
       <c r="E8">
-        <v>0.6335959816024643</v>
+        <v>0.7030717170553024</v>
       </c>
       <c r="F8">
-        <v>0.6528926306346485</v>
+        <v>0.7107963775852487</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04839913305653263</v>
+        <v>0.1145279375814358</v>
       </c>
       <c r="C9">
-        <v>0.3941245839882653</v>
+        <v>0.4251814381380697</v>
       </c>
       <c r="D9">
-        <v>0.3208696055700829</v>
+        <v>0.3204394163604665</v>
       </c>
       <c r="E9">
-        <v>0.566453533460674</v>
+        <v>0.5660736845680662</v>
       </c>
       <c r="F9">
-        <v>0.5841909510683425</v>
+        <v>0.5725477730274827</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01748806567405372</v>
+        <v>-0.01358233361013406</v>
       </c>
       <c r="C10">
-        <v>0.3260429352179946</v>
+        <v>0.3321431173215987</v>
       </c>
       <c r="D10">
-        <v>0.2494121353768383</v>
+        <v>0.2545945103064831</v>
       </c>
       <c r="E10">
-        <v>0.4994117893851108</v>
+        <v>0.5045735925576001</v>
       </c>
       <c r="F10">
-        <v>0.5179462580602099</v>
+        <v>0.5220940294212741</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.02168945670833724</v>
+        <v>-0.02420063924481428</v>
       </c>
       <c r="C11">
-        <v>0.351174191232308</v>
+        <v>0.3457558232543146</v>
       </c>
       <c r="D11">
-        <v>0.2265631253025311</v>
+        <v>0.2682231761632309</v>
       </c>
       <c r="E11">
-        <v>0.4759864759659995</v>
+        <v>0.517902670550395</v>
       </c>
       <c r="F11">
-        <v>0.4949078202060265</v>
+        <v>0.5384613548423456</v>
       </c>
       <c r="G11">
         <v>13</v>
